--- a/database/industries/kashi/kehafez/cost/quarterly.xlsx
+++ b/database/industries/kashi/kehafez/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kehafez\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F3E01-882A-4D65-9822-C9F243EE8ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1369B961-5474-4D73-AA3C-5A3B430F84F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -100,6 +115,9 @@
     <t>عدد</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>رنگها</t>
   </si>
   <si>
@@ -152,9 +170,6 @@
   </si>
   <si>
     <t>نرخ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>نرخ موجودی پایان دوره</t>
@@ -709,16 +724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I183"/>
+  <dimension ref="B1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -727,8 +742,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -739,8 +759,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -751,8 +776,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -761,8 +791,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -773,8 +808,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -785,8 +825,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -795,8 +840,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -817,8 +867,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -827,285 +892,470 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>200235</v>
+      </c>
+      <c r="F10" s="9">
+        <v>245576</v>
+      </c>
+      <c r="G10" s="9">
+        <v>244672</v>
+      </c>
+      <c r="H10" s="9">
+        <v>220519</v>
+      </c>
+      <c r="I10" s="9">
+        <v>427768</v>
+      </c>
+      <c r="J10" s="9">
         <v>339910</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>444139</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>648161</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1048738</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>1166034</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>42149</v>
+      </c>
+      <c r="F11" s="11">
+        <v>37984</v>
+      </c>
+      <c r="G11" s="11">
+        <v>42156</v>
+      </c>
+      <c r="H11" s="11">
+        <v>67724</v>
+      </c>
+      <c r="I11" s="11">
+        <v>63235</v>
+      </c>
+      <c r="J11" s="11">
         <v>62423</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>68426</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>139340</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>144133</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>150947</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>124454</v>
+      </c>
+      <c r="F12" s="9">
+        <v>170497</v>
+      </c>
+      <c r="G12" s="9">
+        <v>148228</v>
+      </c>
+      <c r="H12" s="9">
+        <v>206497</v>
+      </c>
+      <c r="I12" s="9">
+        <v>250586</v>
+      </c>
+      <c r="J12" s="9">
         <v>210315</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>398536</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>358505</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>599518</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>637444</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>366838</v>
+      </c>
+      <c r="F13" s="13">
+        <v>454057</v>
+      </c>
+      <c r="G13" s="13">
+        <v>435056</v>
+      </c>
+      <c r="H13" s="13">
+        <v>494740</v>
+      </c>
+      <c r="I13" s="13">
+        <v>741589</v>
+      </c>
+      <c r="J13" s="13">
         <v>612648</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>911101</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1146006</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1792389</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>1954425</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-6117</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-7680</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-6748</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-7267</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-6906</v>
+      </c>
+      <c r="J14" s="9">
         <v>-3149</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-64493</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-32504</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-6818</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-15893</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>360721</v>
+      </c>
+      <c r="F15" s="13">
+        <v>446377</v>
+      </c>
+      <c r="G15" s="13">
+        <v>428308</v>
+      </c>
+      <c r="H15" s="13">
+        <v>487473</v>
+      </c>
+      <c r="I15" s="13">
+        <v>734683</v>
+      </c>
+      <c r="J15" s="13">
         <v>609499</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>846608</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1113502</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1785571</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>1938532</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>2328</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-967</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-5877</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-8049</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1278</v>
+      </c>
+      <c r="J16" s="9">
         <v>-12833</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>16090</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-11004</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-27842</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-9332</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>502</v>
+        <v>-35</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>-366</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" s="11">
+        <v>-502</v>
+      </c>
+      <c r="J17" s="11">
+        <v>502</v>
+      </c>
+      <c r="K17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>363014</v>
+      </c>
+      <c r="F18" s="15">
+        <v>445404</v>
+      </c>
+      <c r="G18" s="15">
+        <v>422065</v>
+      </c>
+      <c r="H18" s="15">
+        <v>479424</v>
+      </c>
+      <c r="I18" s="15">
+        <v>735459</v>
+      </c>
+      <c r="J18" s="15">
         <v>597168</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>862698</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1102498</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1757729</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>1929200</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>11378</v>
+      </c>
+      <c r="H19" s="11">
+        <v>5285</v>
+      </c>
+      <c r="I19" s="11">
+        <v>27605</v>
+      </c>
+      <c r="J19" s="11">
         <v>54373</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>34078</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>161657</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>127355</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>227247</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>21372</v>
+      </c>
+      <c r="F20" s="9">
+        <v>11378</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-5285</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-27605</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-54373</v>
+      </c>
+      <c r="J20" s="9">
         <v>-34078</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-161657</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-127355</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-227247</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-498839</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>384386</v>
+      </c>
+      <c r="F21" s="13">
+        <v>456781</v>
+      </c>
+      <c r="G21" s="13">
+        <v>449458</v>
+      </c>
+      <c r="H21" s="13">
+        <v>457104</v>
+      </c>
+      <c r="I21" s="13">
+        <v>708691</v>
+      </c>
+      <c r="J21" s="13">
         <v>617463</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>735119</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>1136800</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1657837</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>1657608</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>1791</v>
+        <v>4703</v>
       </c>
       <c r="F22" s="9">
-        <v>26523</v>
+        <v>25851</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>2903</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -1113,30 +1363,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>1791</v>
+      </c>
+      <c r="K22" s="9">
+        <v>26523</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>389089</v>
+      </c>
+      <c r="F23" s="13">
+        <v>482632</v>
+      </c>
+      <c r="G23" s="13">
+        <v>452361</v>
+      </c>
+      <c r="H23" s="13">
+        <v>457104</v>
+      </c>
+      <c r="I23" s="13">
+        <v>708691</v>
+      </c>
+      <c r="J23" s="13">
         <v>619254</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>761642</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>1136800</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1657837</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>1657608</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1145,8 +1425,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1155,8 +1440,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1165,10 +1455,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1187,8 +1482,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1197,150 +1507,245 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>858322</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1060769</v>
+      </c>
+      <c r="G29" s="9">
+        <v>623143</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9">
         <v>2312665</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>517344</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>975385</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>2064337</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>1345347</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>11131</v>
+      </c>
+      <c r="F30" s="11">
+        <v>10</v>
+      </c>
+      <c r="G30" s="11">
+        <v>5</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11">
         <v>52</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>7</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>16</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>16</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>569990</v>
+      </c>
+      <c r="F31" s="9">
+        <v>471</v>
+      </c>
+      <c r="G31" s="9">
+        <v>561</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9">
         <v>700</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>766</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>746</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>1157</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>477</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>88011749</v>
+      </c>
+      <c r="F32" s="11">
+        <v>92884</v>
+      </c>
+      <c r="G32" s="11">
+        <v>90606</v>
+      </c>
+      <c r="H32" s="11">
+        <v>80340</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="11">
         <v>107322</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>123435</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>136654</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>158238</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>186305</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>539018</v>
+      </c>
+      <c r="F33" s="9">
+        <v>819565</v>
+      </c>
+      <c r="G33" s="9">
+        <v>687727</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="9">
         <v>3074298</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>1436894</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>2080404</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>3609858</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>1716916</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>89990210</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1973699</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1402042</v>
+      </c>
+      <c r="H34" s="13">
+        <v>80340</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
         <v>5495037</v>
       </c>
-      <c r="F34" s="13">
+      <c r="K34" s="13">
         <v>2078446</v>
       </c>
-      <c r="G34" s="13">
+      <c r="L34" s="13">
         <v>3193205</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>5833606</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>3249054</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1349,8 +1754,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1359,8 +1769,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1369,10 +1784,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1391,8 +1811,23 @@
       <c r="I38" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1401,150 +1836,245 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
+        <v>1439174</v>
+      </c>
+      <c r="F40" s="9">
+        <v>761281</v>
+      </c>
+      <c r="G40" s="9">
+        <v>782847</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1594289</v>
+      </c>
+      <c r="J40" s="9">
         <v>598577</v>
       </c>
-      <c r="F40" s="9">
+      <c r="K40" s="9">
         <v>1558167</v>
       </c>
-      <c r="G40" s="9">
+      <c r="L40" s="9">
         <v>2010002</v>
       </c>
-      <c r="H40" s="9">
+      <c r="M40" s="9">
         <v>2491663</v>
       </c>
-      <c r="I40" s="9">
+      <c r="N40" s="9">
         <v>5022236</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
+        <v>-2061</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11">
+        <v>9</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="11">
+        <v>50</v>
+      </c>
+      <c r="J41" s="11">
         <v>-41</v>
       </c>
-      <c r="F41" s="11">
+      <c r="K41" s="11">
         <v>9</v>
       </c>
-      <c r="G41" s="11">
+      <c r="L41" s="11">
         <v>2</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>11</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
+        <v>-464275</v>
+      </c>
+      <c r="F42" s="9">
+        <v>868</v>
+      </c>
+      <c r="G42" s="9">
+        <v>711</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1262</v>
+      </c>
+      <c r="J42" s="9">
         <v>653</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>991</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>1669</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>200</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>1105</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>-55402673</v>
+      </c>
+      <c r="F43" s="11">
+        <v>30931</v>
+      </c>
+      <c r="G43" s="11">
+        <v>40126</v>
+      </c>
+      <c r="H43" s="11">
+        <v>32591</v>
+      </c>
+      <c r="I43" s="11">
+        <v>58940</v>
+      </c>
+      <c r="J43" s="11">
         <v>32441</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>71070</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>83237</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>63359</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>29194</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
+        <v>1048813</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1035620</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1813070</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="9">
+        <v>2127982</v>
+      </c>
+      <c r="J44" s="9">
         <v>1691497</v>
       </c>
-      <c r="F44" s="9">
+      <c r="K44" s="9">
         <v>1686047</v>
       </c>
-      <c r="G44" s="9">
+      <c r="L44" s="9">
         <v>2531615</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>2459699</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>-4986250</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
+        <v>-53381022</v>
+      </c>
+      <c r="F45" s="13">
+        <v>1828701</v>
+      </c>
+      <c r="G45" s="13">
+        <v>2636763</v>
+      </c>
+      <c r="H45" s="13">
+        <v>32591</v>
+      </c>
+      <c r="I45" s="13">
+        <v>3782523</v>
+      </c>
+      <c r="J45" s="13">
         <v>2323127</v>
       </c>
-      <c r="F45" s="13">
+      <c r="K45" s="13">
         <v>3316284</v>
       </c>
-      <c r="G45" s="13">
+      <c r="L45" s="13">
         <v>4626525</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>5014932</v>
       </c>
-      <c r="I45" s="13">
+      <c r="N45" s="13">
         <v>66302</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1553,8 +2083,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1563,8 +2098,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1573,10 +2113,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1595,8 +2140,23 @@
       <c r="I49" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1605,150 +2165,245 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
+        <v>1236727</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1198907</v>
+      </c>
+      <c r="G51" s="9">
+        <v>685983</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="9">
+        <v>1631</v>
+      </c>
+      <c r="J51" s="9">
         <v>2393898</v>
       </c>
-      <c r="F51" s="9">
+      <c r="K51" s="9">
         <v>1100126</v>
       </c>
-      <c r="G51" s="9">
+      <c r="L51" s="9">
         <v>921050</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>2236256</v>
       </c>
-      <c r="I51" s="9">
+      <c r="N51" s="9">
         <v>5414205</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>-3281</v>
+      </c>
+      <c r="F52" s="11">
+        <v>5</v>
+      </c>
+      <c r="G52" s="11">
+        <v>6</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="11">
+        <v>7</v>
+      </c>
+      <c r="J52" s="11">
         <v>4</v>
       </c>
-      <c r="F52" s="11">
+      <c r="K52" s="11">
         <v>0</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>2</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>11</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>-608407</v>
+      </c>
+      <c r="F53" s="9">
+        <v>778</v>
+      </c>
+      <c r="G53" s="9">
+        <v>649</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1185</v>
+      </c>
+      <c r="J53" s="9">
         <v>587</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>1011</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>1258</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>742</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>1014</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>-24220596</v>
+      </c>
+      <c r="F54" s="11">
+        <v>33209</v>
+      </c>
+      <c r="G54" s="11">
+        <v>50392</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="11">
+        <v>64549</v>
+      </c>
+      <c r="J54" s="11">
         <v>16328</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>57851</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>61653</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>31262</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>55558</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>768266</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1167458</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1523110</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="9">
+        <v>31372</v>
+      </c>
+      <c r="J55" s="9">
         <v>3328901</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>1042536</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>1002161</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>3070585</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>-4064100</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>-22827291</v>
+      </c>
+      <c r="F56" s="13">
+        <v>2400357</v>
+      </c>
+      <c r="G56" s="13">
+        <v>2260140</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <v>98744</v>
+      </c>
+      <c r="J56" s="13">
         <v>5739718</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>2201524</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>1986124</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>5338856</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>1406693</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1757,8 +2412,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1767,8 +2427,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1777,10 +2442,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1799,8 +2469,23 @@
       <c r="I60" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1809,150 +2494,245 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
+        <v>1060769</v>
+      </c>
+      <c r="F62" s="9">
+        <v>623143</v>
+      </c>
+      <c r="G62" s="9">
+        <v>720007</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="9">
+        <v>2312665</v>
+      </c>
+      <c r="J62" s="9">
         <v>517344</v>
       </c>
-      <c r="F62" s="9">
+      <c r="K62" s="9">
         <v>975385</v>
       </c>
-      <c r="G62" s="9">
+      <c r="L62" s="9">
         <v>2064337</v>
       </c>
-      <c r="H62" s="9">
+      <c r="M62" s="9">
         <v>1345347</v>
       </c>
-      <c r="I62" s="9">
+      <c r="N62" s="9">
         <v>953378</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>10</v>
+      </c>
+      <c r="F63" s="11">
+        <v>5</v>
+      </c>
+      <c r="G63" s="11">
+        <v>8</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="11">
+        <v>52</v>
+      </c>
+      <c r="J63" s="11">
         <v>7</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>16</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>16</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>9</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>471</v>
+      </c>
+      <c r="F64" s="9">
+        <v>561</v>
+      </c>
+      <c r="G64" s="9">
+        <v>623</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="9">
+        <v>700</v>
+      </c>
+      <c r="J64" s="9">
         <v>766</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>746</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>1157</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>477</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>568</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>92884</v>
+      </c>
+      <c r="F65" s="11">
+        <v>90606</v>
+      </c>
+      <c r="G65" s="11">
+        <v>80340</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="11">
+        <v>107322</v>
+      </c>
+      <c r="J65" s="11">
         <v>123435</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>136654</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>158238</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>186305</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>159941</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
+        <v>819565</v>
+      </c>
+      <c r="F66" s="9">
+        <v>687727</v>
+      </c>
+      <c r="G66" s="9">
+        <v>977687</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="9">
+        <v>3074298</v>
+      </c>
+      <c r="J66" s="9">
         <v>1436894</v>
       </c>
-      <c r="F66" s="9">
+      <c r="K66" s="9">
         <v>2080404</v>
       </c>
-      <c r="G66" s="9">
+      <c r="L66" s="9">
         <v>3609858</v>
       </c>
-      <c r="H66" s="9">
+      <c r="M66" s="9">
         <v>1716916</v>
       </c>
-      <c r="I66" s="9">
+      <c r="N66" s="9">
         <v>794766</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>1973699</v>
+      </c>
+      <c r="F67" s="13">
+        <v>1402042</v>
+      </c>
+      <c r="G67" s="13">
+        <v>1778665</v>
+      </c>
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13">
+        <v>5495037</v>
+      </c>
+      <c r="J67" s="13">
         <v>2078446</v>
       </c>
-      <c r="F67" s="13">
+      <c r="K67" s="13">
         <v>3193205</v>
       </c>
-      <c r="G67" s="13">
+      <c r="L67" s="13">
         <v>5833606</v>
       </c>
-      <c r="H67" s="13">
+      <c r="M67" s="13">
         <v>3249054</v>
       </c>
-      <c r="I67" s="13">
+      <c r="N67" s="13">
         <v>1908663</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1961,8 +2741,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1971,8 +2756,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1981,10 +2771,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2003,8 +2798,23 @@
       <c r="I71" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2013,150 +2823,245 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>10755</v>
+      </c>
+      <c r="F73" s="9">
+        <v>16572</v>
+      </c>
+      <c r="G73" s="9">
+        <v>20786</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="9">
         <v>31703</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>26633</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>53491</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>191867</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>149534</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
+        <v>29293</v>
+      </c>
+      <c r="F74" s="11">
+        <v>22437</v>
+      </c>
+      <c r="G74" s="11">
+        <v>13403</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" s="11">
         <v>58342</v>
       </c>
-      <c r="F74" s="11">
+      <c r="K74" s="11">
         <v>64533</v>
       </c>
-      <c r="G74" s="11">
+      <c r="L74" s="11">
         <v>56591</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>57624</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>57433</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>42682</v>
+      </c>
+      <c r="F75" s="9">
+        <v>42944</v>
+      </c>
+      <c r="G75" s="9">
+        <v>57106</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="9">
         <v>77086</v>
       </c>
-      <c r="F75" s="9">
+      <c r="K75" s="9">
         <v>84836</v>
       </c>
-      <c r="G75" s="9">
+      <c r="L75" s="9">
         <v>84037</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>189194</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>149338</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>113986</v>
+      </c>
+      <c r="F76" s="11">
+        <v>136439</v>
+      </c>
+      <c r="G76" s="11">
+        <v>155573</v>
+      </c>
+      <c r="H76" s="11">
+        <v>160443</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76" s="11">
         <v>355095</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>412532</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>560951</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>678858</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>1154216</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>129223</v>
+      </c>
+      <c r="F77" s="9">
+        <v>119068</v>
+      </c>
+      <c r="G77" s="9">
+        <v>128873</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" s="9">
         <v>60829</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>120711</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>196860</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>437658</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>187051</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>325939</v>
+      </c>
+      <c r="F78" s="13">
+        <v>337460</v>
+      </c>
+      <c r="G78" s="13">
+        <v>375741</v>
+      </c>
+      <c r="H78" s="13">
+        <v>160443</v>
+      </c>
+      <c r="I78" s="13">
+        <v>0</v>
+      </c>
+      <c r="J78" s="13">
         <v>583055</v>
       </c>
-      <c r="F78" s="13">
+      <c r="K78" s="13">
         <v>709245</v>
       </c>
-      <c r="G78" s="13">
+      <c r="L78" s="13">
         <v>951930</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>1555201</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>1697572</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2165,8 +3070,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2175,8 +3085,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2185,10 +3100,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2207,8 +3127,23 @@
       <c r="I82" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2217,150 +3152,245 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
+        <v>27516</v>
+      </c>
+      <c r="F84" s="9">
+        <v>34648</v>
+      </c>
+      <c r="G84" s="9">
+        <v>34908</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" s="9">
+        <v>87041</v>
+      </c>
+      <c r="J84" s="9">
         <v>37348</v>
       </c>
-      <c r="F84" s="9">
+      <c r="K84" s="9">
         <v>103035</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>212264</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>34306</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>1061327</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>1967</v>
+      </c>
+      <c r="F85" s="11">
+        <v>2978</v>
+      </c>
+      <c r="G85" s="11">
+        <v>22843</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" s="11">
+        <v>60321</v>
+      </c>
+      <c r="J85" s="11">
         <v>18109</v>
       </c>
-      <c r="F85" s="11">
+      <c r="K85" s="11">
         <v>18877</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>9140</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>78301</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>64888</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>59270</v>
+      </c>
+      <c r="F86" s="9">
+        <v>85053</v>
+      </c>
+      <c r="G86" s="9">
+        <v>74847</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="9">
+        <v>138595</v>
+      </c>
+      <c r="J86" s="9">
         <v>75250</v>
       </c>
-      <c r="F86" s="9">
+      <c r="K86" s="9">
         <v>126355</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>282469</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>-22773</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>145894</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
+        <v>72473</v>
+      </c>
+      <c r="F87" s="11">
+        <v>74093</v>
+      </c>
+      <c r="G87" s="11">
+        <v>96011</v>
+      </c>
+      <c r="H87" s="11">
+        <v>111987</v>
+      </c>
+      <c r="I87" s="11">
+        <v>259990</v>
+      </c>
+      <c r="J87" s="11">
         <v>150412</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>309478</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>388224</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>541722</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>169583</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
+        <v>50528</v>
+      </c>
+      <c r="F88" s="9">
+        <v>87086</v>
+      </c>
+      <c r="G88" s="9">
+        <v>127423</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" s="9">
+        <v>224701</v>
+      </c>
+      <c r="J88" s="9">
         <v>184980</v>
       </c>
-      <c r="F88" s="9">
+      <c r="K88" s="9">
         <v>129080</v>
       </c>
-      <c r="G88" s="9">
+      <c r="L88" s="9">
         <v>359335</v>
       </c>
-      <c r="H88" s="9">
+      <c r="M88" s="9">
         <v>558994</v>
       </c>
-      <c r="I88" s="9">
+      <c r="N88" s="9">
         <v>-171418</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>211754</v>
+      </c>
+      <c r="F89" s="13">
+        <v>283858</v>
+      </c>
+      <c r="G89" s="13">
+        <v>356032</v>
+      </c>
+      <c r="H89" s="13">
+        <v>111987</v>
+      </c>
+      <c r="I89" s="13">
+        <v>770648</v>
+      </c>
+      <c r="J89" s="13">
         <v>466099</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>686825</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>1251432</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>1190550</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>1270274</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2369,8 +3399,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2379,8 +3414,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2389,10 +3429,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2411,8 +3456,23 @@
       <c r="I93" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2421,150 +3481,245 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
+        <v>21699</v>
+      </c>
+      <c r="F95" s="9">
+        <v>30434</v>
+      </c>
+      <c r="G95" s="9">
+        <v>-39065</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" s="9">
+        <v>80900</v>
+      </c>
+      <c r="J95" s="9">
         <v>42418</v>
       </c>
-      <c r="F95" s="9">
+      <c r="K95" s="9">
         <v>76177</v>
       </c>
-      <c r="G95" s="9">
+      <c r="L95" s="9">
         <v>73888</v>
       </c>
-      <c r="H95" s="9">
+      <c r="M95" s="9">
         <v>76833</v>
       </c>
-      <c r="I95" s="9">
+      <c r="N95" s="9">
         <v>957615</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
+        <v>8823</v>
+      </c>
+      <c r="F96" s="11">
+        <v>12012</v>
+      </c>
+      <c r="G96" s="11">
+        <v>15490</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" s="11">
+        <v>22735</v>
+      </c>
+      <c r="J96" s="11">
         <v>11919</v>
       </c>
-      <c r="F96" s="11">
+      <c r="K96" s="11">
         <v>26818</v>
       </c>
-      <c r="G96" s="11">
+      <c r="L96" s="11">
         <v>8107</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>78492</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>21973</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>59008</v>
+      </c>
+      <c r="F97" s="9">
+        <v>70891</v>
+      </c>
+      <c r="G97" s="9">
+        <v>64725</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I97" s="9">
+        <v>128737</v>
+      </c>
+      <c r="J97" s="9">
         <v>67500</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>127154</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>177312</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>13790</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>183385</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>50020</v>
+      </c>
+      <c r="F98" s="11">
+        <v>54959</v>
+      </c>
+      <c r="G98" s="11">
+        <v>91141</v>
+      </c>
+      <c r="H98" s="11">
+        <v>58932</v>
+      </c>
+      <c r="I98" s="11">
+        <v>118393</v>
+      </c>
+      <c r="J98" s="11">
         <v>92975</v>
       </c>
-      <c r="F98" s="11">
+      <c r="K98" s="11">
         <v>161059</v>
       </c>
-      <c r="G98" s="11">
+      <c r="L98" s="11">
         <v>270317</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>65757</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>488397</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>60685</v>
+      </c>
+      <c r="F99" s="9">
+        <v>77280</v>
+      </c>
+      <c r="G99" s="9">
+        <v>112381</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" s="9">
+        <v>238590</v>
+      </c>
+      <c r="J99" s="9">
         <v>125098</v>
       </c>
-      <c r="F99" s="9">
+      <c r="K99" s="9">
         <v>52931</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>118537</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>813866</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>-485336</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>200235</v>
+      </c>
+      <c r="F100" s="13">
+        <v>245576</v>
+      </c>
+      <c r="G100" s="13">
+        <v>244672</v>
+      </c>
+      <c r="H100" s="13">
+        <v>58932</v>
+      </c>
+      <c r="I100" s="13">
+        <v>589355</v>
+      </c>
+      <c r="J100" s="13">
         <v>339910</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>444139</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>648161</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>1048738</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>1166034</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2573,8 +3728,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2583,8 +3743,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2593,10 +3758,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2615,8 +3785,23 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2625,150 +3810,245 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
+        <v>16572</v>
+      </c>
+      <c r="F106" s="9">
+        <v>20786</v>
+      </c>
+      <c r="G106" s="9">
+        <v>94759</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" s="9">
+        <v>31703</v>
+      </c>
+      <c r="J106" s="9">
         <v>26633</v>
       </c>
-      <c r="F106" s="9">
+      <c r="K106" s="9">
         <v>53491</v>
       </c>
-      <c r="G106" s="9">
+      <c r="L106" s="9">
         <v>191867</v>
       </c>
-      <c r="H106" s="9">
+      <c r="M106" s="9">
         <v>149534</v>
       </c>
-      <c r="I106" s="9">
+      <c r="N106" s="9">
         <v>253246</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
+        <v>22437</v>
+      </c>
+      <c r="F107" s="11">
+        <v>13403</v>
+      </c>
+      <c r="G107" s="11">
+        <v>20756</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="11">
+        <v>58342</v>
+      </c>
+      <c r="J107" s="11">
         <v>64533</v>
       </c>
-      <c r="F107" s="11">
+      <c r="K107" s="11">
         <v>56591</v>
       </c>
-      <c r="G107" s="11">
+      <c r="L107" s="11">
         <v>57624</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>57433</v>
       </c>
-      <c r="I107" s="11">
+      <c r="N107" s="11">
         <v>100348</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>42944</v>
+      </c>
+      <c r="F108" s="9">
+        <v>57106</v>
+      </c>
+      <c r="G108" s="9">
+        <v>67228</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="9">
+        <v>77086</v>
+      </c>
+      <c r="J108" s="9">
         <v>84836</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>84037</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>189194</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>149338</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>111847</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>136439</v>
+      </c>
+      <c r="F109" s="11">
+        <v>155573</v>
+      </c>
+      <c r="G109" s="11">
+        <v>160443</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" s="11">
+        <v>355095</v>
+      </c>
+      <c r="J109" s="11">
         <v>412532</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>560951</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>678858</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>1154216</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>835402</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
+        <v>119068</v>
+      </c>
+      <c r="F110" s="9">
+        <v>128873</v>
+      </c>
+      <c r="G110" s="9">
+        <v>143915</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" s="9">
+        <v>60829</v>
+      </c>
+      <c r="J110" s="9">
         <v>120711</v>
       </c>
-      <c r="F110" s="9">
+      <c r="K110" s="9">
         <v>196860</v>
       </c>
-      <c r="G110" s="9">
+      <c r="L110" s="9">
         <v>437658</v>
       </c>
-      <c r="H110" s="9">
+      <c r="M110" s="9">
         <v>187051</v>
       </c>
-      <c r="I110" s="9">
+      <c r="N110" s="9">
         <v>500969</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
+        <v>337460</v>
+      </c>
+      <c r="F111" s="13">
+        <v>375741</v>
+      </c>
+      <c r="G111" s="13">
+        <v>487101</v>
+      </c>
+      <c r="H111" s="13">
+        <v>0</v>
+      </c>
+      <c r="I111" s="13">
+        <v>583055</v>
+      </c>
+      <c r="J111" s="13">
         <v>709245</v>
       </c>
-      <c r="F111" s="13">
+      <c r="K111" s="13">
         <v>951930</v>
       </c>
-      <c r="G111" s="13">
+      <c r="L111" s="13">
         <v>1555201</v>
       </c>
-      <c r="H111" s="13">
+      <c r="M111" s="13">
         <v>1697572</v>
       </c>
-      <c r="I111" s="13">
+      <c r="N111" s="13">
         <v>1801812</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2777,8 +4057,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2787,8 +4072,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2797,10 +4087,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2819,8 +4114,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2829,128 +4139,208 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
+        <v>12530</v>
+      </c>
+      <c r="F117" s="9">
+        <v>15623</v>
+      </c>
+      <c r="G117" s="9">
+        <v>33357</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="9">
         <v>13708</v>
       </c>
-      <c r="F117" s="9">
+      <c r="K117" s="9">
         <v>51480</v>
       </c>
-      <c r="G117" s="9">
+      <c r="L117" s="9">
         <v>54841</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>92944</v>
       </c>
-      <c r="I117" s="9">
+      <c r="N117" s="9">
         <v>111149</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>2631659</v>
+      </c>
+      <c r="F118" s="11">
+        <v>2243700000</v>
+      </c>
+      <c r="G118" s="11">
+        <v>2680600000</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" s="11">
         <v>1121961538</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>9219000000</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>3536937500</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>3601500000</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>6381444444</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
+        <v>74882</v>
+      </c>
+      <c r="F119" s="9">
+        <v>91176221</v>
+      </c>
+      <c r="G119" s="9">
+        <v>101793226</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="9">
         <v>110122857</v>
       </c>
-      <c r="F119" s="9">
+      <c r="K119" s="9">
         <v>110751958</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>112650134</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>163521175</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>313077568</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
+        <v>1295</v>
+      </c>
+      <c r="F120" s="11">
+        <v>1468918</v>
+      </c>
+      <c r="G120" s="11">
+        <v>1717028</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="11">
         <v>3308688</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>3342099</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>4104900</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>4290107</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>6195303</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>239738</v>
+      </c>
+      <c r="F121" s="9">
+        <v>145282</v>
+      </c>
+      <c r="G121" s="9">
+        <v>187390</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J121" s="9">
         <v>19786</v>
       </c>
-      <c r="F121" s="9">
+      <c r="K121" s="9">
         <v>84008</v>
       </c>
-      <c r="G121" s="9">
+      <c r="L121" s="9">
         <v>94626</v>
       </c>
-      <c r="H121" s="9">
+      <c r="M121" s="9">
         <v>121240</v>
       </c>
-      <c r="I121" s="9">
+      <c r="N121" s="9">
         <v>108946</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2959,8 +4349,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2969,8 +4364,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2979,10 +4379,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3001,8 +4406,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3011,128 +4431,208 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
+        <v>19119</v>
+      </c>
+      <c r="F127" s="9">
+        <v>45513</v>
+      </c>
+      <c r="G127" s="9">
+        <v>44591</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="9">
+        <v>54596</v>
+      </c>
+      <c r="J127" s="9">
         <v>62395</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>66126</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>105604</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>13768</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>211326</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>-954391</v>
+      </c>
+      <c r="F128" s="11">
+        <v>2978000000</v>
+      </c>
+      <c r="G128" s="11">
+        <v>2538111111</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" s="11">
+        <v>1206420000</v>
+      </c>
+      <c r="J128" s="11">
         <v>-441682927</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>2097444444</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>4570000000</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>7118272727</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>3816941176</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>-127661</v>
+      </c>
+      <c r="F129" s="9">
+        <v>97987327</v>
+      </c>
+      <c r="G129" s="9">
+        <v>105270042</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" s="9">
+        <v>109821712</v>
+      </c>
+      <c r="J129" s="9">
         <v>115237366</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>127502523</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>169244458</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>-113865000</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>132030769</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
+        <v>-1308</v>
+      </c>
+      <c r="F130" s="11">
+        <v>2395429</v>
+      </c>
+      <c r="G130" s="11">
+        <v>2392738</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" s="11">
+        <v>4411096</v>
+      </c>
+      <c r="J130" s="11">
         <v>4636479</v>
       </c>
-      <c r="F130" s="11">
+      <c r="K130" s="11">
         <v>4354552</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>4664080</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>8550040</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>5808831</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
+        <v>48176</v>
+      </c>
+      <c r="F131" s="9">
+        <v>84091</v>
+      </c>
+      <c r="G131" s="9">
+        <v>70280</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" s="9">
+        <v>105593</v>
+      </c>
+      <c r="J131" s="9">
         <v>109359</v>
       </c>
-      <c r="F131" s="9">
+      <c r="K131" s="9">
         <v>76558</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>141939</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>227261</v>
       </c>
-      <c r="I131" s="9">
+      <c r="N131" s="9">
         <v>34378</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3141,8 +4641,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3151,8 +4656,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3161,10 +4671,15 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3183,8 +4698,23 @@
       <c r="I135" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3193,128 +4723,208 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>17546</v>
+      </c>
+      <c r="F137" s="9">
+        <v>25385</v>
+      </c>
+      <c r="G137" s="9">
+        <v>-56947</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="9">
+        <v>49601471</v>
+      </c>
+      <c r="J137" s="9">
         <v>17719</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>69244</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>80221</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>34358</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>176871</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>-2689119</v>
+      </c>
+      <c r="F138" s="11">
+        <v>2402400000</v>
+      </c>
+      <c r="G138" s="11">
+        <v>2581666667</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="11">
+        <v>3247857143</v>
+      </c>
+      <c r="J138" s="11">
         <v>2979750000</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G138" s="11">
+      <c r="K138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L138" s="11">
         <v>4053500000</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>7135636364</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>1373312500</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>-96988</v>
+      </c>
+      <c r="F139" s="9">
+        <v>91119537</v>
+      </c>
+      <c r="G139" s="9">
+        <v>99730354</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="9">
+        <v>108638819</v>
+      </c>
+      <c r="J139" s="9">
         <v>114991482</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>125770524</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>140947536</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>18584906</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>180853057</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11">
+        <v>-2065</v>
+      </c>
+      <c r="F140" s="11">
+        <v>1654943</v>
+      </c>
+      <c r="G140" s="11">
+        <v>1808640</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" s="11">
+        <v>1834157</v>
+      </c>
+      <c r="J140" s="11">
         <v>5694206</v>
       </c>
-      <c r="F140" s="11">
+      <c r="K140" s="11">
         <v>2784031</v>
       </c>
-      <c r="G140" s="11">
+      <c r="L140" s="11">
         <v>4384491</v>
       </c>
-      <c r="H140" s="11">
+      <c r="M140" s="11">
         <v>2103416</v>
       </c>
-      <c r="I140" s="11">
+      <c r="N140" s="11">
         <v>8790759</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>78990</v>
+      </c>
+      <c r="F141" s="9">
+        <v>66195</v>
+      </c>
+      <c r="G141" s="9">
+        <v>73784</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" s="9">
+        <v>7605189</v>
+      </c>
+      <c r="J141" s="9">
         <v>37579</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>50771</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>118281</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>265052</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>119420</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3323,8 +4933,13 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3333,8 +4948,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3343,10 +4963,15 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3365,8 +4990,23 @@
       <c r="I145" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3375,128 +5015,208 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D147" s="9"/>
-      <c r="E147" s="9">
+      <c r="E147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="9">
+        <v>131608</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="9">
+        <v>13708</v>
+      </c>
+      <c r="J147" s="9">
         <v>51480</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>54841</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>92944</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>111149</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>265630</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D148" s="11"/>
-      <c r="E148" s="11">
+      <c r="E148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" s="11">
+        <v>2594500000</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" s="11">
+        <v>1121961538</v>
+      </c>
+      <c r="J148" s="11">
         <v>9219000000</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>3536937500</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>3601500000</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>6381444444</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>10034800000</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9">
+      <c r="E149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="9">
+        <v>107910112</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="9">
+        <v>110122857</v>
+      </c>
+      <c r="J149" s="9">
         <v>110751958</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>112650134</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>163521175</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>313077568</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>196913732</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11">
+      <c r="E150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150" s="11">
+        <v>1997050</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" s="11">
+        <v>3308688</v>
+      </c>
+      <c r="J150" s="11">
         <v>3342099</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>4104900</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>4290107</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>6195303</v>
       </c>
-      <c r="I150" s="11">
+      <c r="N150" s="11">
         <v>5223189</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D151" s="9"/>
-      <c r="E151" s="9">
+      <c r="E151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" s="9">
+        <v>147199</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" s="9">
+        <v>19786</v>
+      </c>
+      <c r="J151" s="9">
         <v>84008</v>
       </c>
-      <c r="F151" s="9">
+      <c r="K151" s="9">
         <v>94626</v>
       </c>
-      <c r="G151" s="9">
+      <c r="L151" s="9">
         <v>121240</v>
       </c>
-      <c r="H151" s="9">
+      <c r="M151" s="9">
         <v>108946</v>
       </c>
-      <c r="I151" s="9">
+      <c r="N151" s="9">
         <v>630335</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3505,8 +5225,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3515,8 +5240,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3525,10 +5255,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3547,8 +5282,23 @@
       <c r="I155" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3557,10 +5307,15 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -3568,21 +5323,36 @@
         <v>0</v>
       </c>
       <c r="F157" s="9">
+        <v>133010</v>
+      </c>
+      <c r="G157" s="9">
+        <v>-133010</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" s="9">
         <v>0</v>
       </c>
-      <c r="G157" s="9">
+      <c r="K157" s="9">
         <v>0</v>
       </c>
-      <c r="H157" s="9">
+      <c r="L157" s="9">
         <v>0</v>
       </c>
-      <c r="I157" s="9">
+      <c r="M157" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N157" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -3595,16 +5365,31 @@
       <c r="G158" s="11">
         <v>0</v>
       </c>
-      <c r="H158" s="11">
+      <c r="H158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" s="11">
         <v>0</v>
       </c>
-      <c r="I158" s="11">
+      <c r="K158" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L158" s="11">
+        <v>0</v>
+      </c>
+      <c r="M158" s="11">
+        <v>0</v>
+      </c>
+      <c r="N158" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -3617,16 +5402,31 @@
       <c r="G159" s="9">
         <v>0</v>
       </c>
-      <c r="H159" s="9">
+      <c r="H159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J159" s="9">
         <v>0</v>
       </c>
-      <c r="I159" s="9">
+      <c r="K159" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L159" s="9">
+        <v>0</v>
+      </c>
+      <c r="M159" s="9">
+        <v>0</v>
+      </c>
+      <c r="N159" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -3639,104 +5439,179 @@
       <c r="G160" s="11">
         <v>0</v>
       </c>
-      <c r="H160" s="11">
+      <c r="H160" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J160" s="11">
         <v>0</v>
       </c>
-      <c r="I160" s="11">
+      <c r="K160" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="M160" s="11">
+        <v>0</v>
+      </c>
+      <c r="N160" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
+        <v>799</v>
+      </c>
+      <c r="F161" s="9">
+        <v>23127</v>
+      </c>
+      <c r="G161" s="9">
+        <v>4002</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J161" s="9">
         <v>565</v>
       </c>
-      <c r="F161" s="9">
+      <c r="K161" s="9">
         <v>59288</v>
       </c>
-      <c r="G161" s="9">
+      <c r="L161" s="9">
         <v>47165</v>
       </c>
-      <c r="H161" s="9">
+      <c r="M161" s="9">
         <v>-18692</v>
       </c>
-      <c r="I161" s="9">
+      <c r="N161" s="9">
         <v>4342</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
+        <v>12655</v>
+      </c>
+      <c r="F162" s="11">
+        <v>19581</v>
+      </c>
+      <c r="G162" s="11">
+        <v>4180</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" s="11">
         <v>12936</v>
       </c>
-      <c r="F162" s="11">
+      <c r="K162" s="11">
         <v>98032</v>
       </c>
-      <c r="G162" s="11">
+      <c r="L162" s="11">
         <v>46619</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>59500</v>
       </c>
-      <c r="I162" s="11">
+      <c r="N162" s="11">
         <v>81626</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
+        <v>19192</v>
+      </c>
+      <c r="F163" s="9">
+        <v>21320</v>
+      </c>
+      <c r="G163" s="9">
+        <v>23998</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J163" s="9">
         <v>21490</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>30587</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>11414</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>225724</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>-47458</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
+        <v>44631</v>
+      </c>
+      <c r="F164" s="11">
+        <v>41063</v>
+      </c>
+      <c r="G164" s="11">
+        <v>56729</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J164" s="11">
         <v>71643</v>
       </c>
-      <c r="F164" s="11">
+      <c r="K164" s="11">
         <v>74103</v>
       </c>
-      <c r="G164" s="11">
+      <c r="L164" s="11">
         <v>160828</v>
       </c>
-      <c r="H164" s="11">
+      <c r="M164" s="11">
         <v>150437</v>
       </c>
-      <c r="I164" s="11">
+      <c r="N164" s="11">
         <v>169491</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -3749,58 +5624,103 @@
       <c r="G165" s="9">
         <v>0</v>
       </c>
-      <c r="H165" s="9">
+      <c r="H165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J165" s="9">
         <v>0</v>
       </c>
-      <c r="I165" s="9">
+      <c r="K165" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L165" s="9">
+        <v>0</v>
+      </c>
+      <c r="M165" s="9">
+        <v>0</v>
+      </c>
+      <c r="N165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>47177</v>
+      </c>
+      <c r="F166" s="11">
+        <v>-67604</v>
+      </c>
+      <c r="G166" s="11">
+        <v>192329</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J166" s="11">
         <v>103681</v>
       </c>
-      <c r="F166" s="11">
+      <c r="K166" s="11">
         <v>136526</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>92479</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>182549</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>429443</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
+        <v>124454</v>
+      </c>
+      <c r="F167" s="15">
+        <v>170497</v>
+      </c>
+      <c r="G167" s="15">
+        <v>148228</v>
+      </c>
+      <c r="H167" s="15">
+        <v>0</v>
+      </c>
+      <c r="I167" s="15">
+        <v>0</v>
+      </c>
+      <c r="J167" s="15">
         <v>210315</v>
       </c>
-      <c r="F167" s="15">
+      <c r="K167" s="15">
         <v>398536</v>
       </c>
-      <c r="G167" s="15">
+      <c r="L167" s="15">
         <v>358505</v>
       </c>
-      <c r="H167" s="15">
+      <c r="M167" s="15">
         <v>599518</v>
       </c>
-      <c r="I167" s="15">
+      <c r="N167" s="15">
         <v>637444</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3809,8 +5729,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3819,8 +5744,13 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3829,10 +5759,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -3841,8 +5776,13 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3851,123 +5791,128 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>

--- a/database/industries/kashi/kehafez/cost/quarterly.xlsx
+++ b/database/industries/kashi/kehafez/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1369B961-5474-4D73-AA3C-5A3B430F84F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340458E4-7D80-4F0F-936A-CDDED1E70778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -728,12 +728,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -748,7 +748,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,7 +797,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -846,7 +846,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -898,7 +898,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1166034</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -972,7 +972,7 @@
         <v>150947</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>637444</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>1954425</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>-15893</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>1938532</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>-9332</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1929200</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>-1</v>
       </c>
       <c r="G19" s="11">
-        <v>11378</v>
+        <v>32678</v>
       </c>
       <c r="H19" s="11">
         <v>5285</v>
@@ -1268,7 +1268,7 @@
         <v>227247</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>-498839</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1657608</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1657608</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1461,7 +1461,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1513,7 +1513,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>1345347</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>186305</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>1716916</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>3249054</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1760,7 +1760,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1775,7 +1775,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1790,7 +1790,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1842,7 +1842,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>5022236</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>35</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>29194</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>-4986250</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>17</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>66302</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2089,7 +2089,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2104,7 +2104,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2119,7 +2119,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>38</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2171,7 +2171,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>5414205</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>34</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>35</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>55558</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>-4064100</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>17</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>1406693</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2418,7 +2418,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2433,7 +2433,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2448,7 +2448,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>39</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2500,7 +2500,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>953378</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>34</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>35</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>159941</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>36</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>794766</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1908663</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2747,7 +2747,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2762,7 +2762,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2777,7 +2777,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>40</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2829,7 +2829,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>29</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>149534</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>32</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>57433</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>149338</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>35</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>1154216</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>36</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>187051</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>17</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>1697572</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3076,7 +3076,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3091,7 +3091,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3106,7 +3106,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>42</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3158,7 +3158,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>29</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>1061327</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>64888</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>34</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>145894</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>35</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>169583</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>36</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>-171418</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>17</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>1270274</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3405,7 +3405,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3420,7 +3420,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3435,7 +3435,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>43</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3487,7 +3487,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>29</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>957615</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>32</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>21973</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>34</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>183385</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>35</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>488397</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>36</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>-485336</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>17</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>1166034</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3734,7 +3734,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3749,7 +3749,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3764,7 +3764,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>44</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3816,7 +3816,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>29</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>253246</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>32</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>100348</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>34</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>111847</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>35</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>835402</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>36</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>500969</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>17</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>1801812</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4063,7 +4063,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4078,7 +4078,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4093,7 +4093,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>45</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4145,7 +4145,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>111149</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>6381444444</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>34</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>313077568</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>35</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>6195303</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>36</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>108946</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4355,7 +4355,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4370,7 +4370,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4385,7 +4385,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>48</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4437,7 +4437,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>211326</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>3816941176</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>132030769</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>35</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>5808831</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>36</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>34378</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4647,7 +4647,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4662,7 +4662,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4677,7 +4677,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>49</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4729,7 +4729,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>29</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>176871</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>1373312500</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>34</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>180853057</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>35</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>8790759</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>36</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>119420</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4939,7 +4939,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4954,7 +4954,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4969,7 +4969,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>50</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5021,7 +5021,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>29</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>265630</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>32</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>10034800000</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>34</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>196913732</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>35</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>5223189</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>36</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>630335</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5231,7 +5231,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5246,7 +5246,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5261,7 +5261,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>51</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5313,7 +5313,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>52</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>53</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>54</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>55</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>56</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>57</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>81626</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>58</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>-47458</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>59</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>169491</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>60</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>61</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>429443</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>17</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>637444</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5735,7 +5735,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5750,7 +5750,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5765,7 +5765,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>62</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5797,7 +5797,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>63</v>
       </c>
@@ -5808,7 +5808,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>65</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>67</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>69</v>
       </c>
@@ -5841,7 +5841,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>71</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>73</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>75</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>77</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>78</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>80</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>77</v>
       </c>
